--- a/trained_models_old_clean/MLP/summary_results_table.xlsx
+++ b/trained_models_old_clean/MLP/summary_results_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>breast_cancer</t>
+          <t>har</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,26 +567,26 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>trained_models/MLP/breast_cancer/breast_cancer_(0, 1)_3_15</t>
+          <t>trained_models/MLP/har/har_(0, 1)_3_17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8509567741744859, 'beta_2': 0.9614326787369897, 'epsilon': 0.1104117717586079, 'learning_rate': 'constant', 'momentum': 0.9979940009356586, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.6033229922907446}</t>
+          <t>{'beta_1': 0.9756639553354612, 'beta_2': 0.7959082969442735, 'epsilon': 0.292883275730234, 'learning_rate': 'invscaling', 'momentum': 0.26420426422417276, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.4742667929910924}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9804878048780488</v>
+        <v>0.9453681710213777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>breast_cancer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,26 +603,26 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>trained_models/MLP/wine/wine_(0, 1)_3_1</t>
+          <t>trained_models/MLP/breast_cancer/breast_cancer_(0, 1)_3_15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.8509567741744859, 'beta_2': 0.9614326787369897, 'epsilon': 0.1104117717586079, 'learning_rate': 'constant', 'momentum': 0.9979940009356586, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.6033229922907446}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9804878048780488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>spectf</t>
+          <t>wine</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -639,26 +639,26 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>trained_models/MLP/spectf/spectf_(0, 1)_3_13</t>
+          <t>trained_models/MLP/wine/wine_(0, 1)_3_1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
+          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9197860962566845</v>
+        <v>0.9814814814814815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>redwine_quality</t>
+          <t>spectf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -675,26 +675,26 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>trained_models/MLP/redwine_quality/redwine_quality_(0, 1)_3_12</t>
+          <t>trained_models/MLP/spectf/spectf_(0, 1)_3_13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.880286526374104, 'beta_2': 0.8956147508012579, 'epsilon': 0.36698304972104845, 'learning_rate': 'invscaling', 'momentum': 0.7721249928010511, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10018511110802708}</t>
+          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.58125</v>
+        <v>0.9197860962566845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tic_tac_toe</t>
+          <t>redwine_quality</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -711,26 +711,26 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>trained_models/MLP/tic_tac_toe/tic_tac_toe_(0, 1)_3_13</t>
+          <t>trained_models/MLP/redwine_quality/redwine_quality_(0, 1)_3_12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5553817511197982, 'beta_2': 0.7408615040451714, 'epsilon': 0.769773517554749, 'learning_rate': 'adaptive', 'momentum': 0.9205475833293032, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7720568212000914}</t>
+          <t>{'beta_1': 0.880286526374104, 'beta_2': 0.8956147508012579, 'epsilon': 0.36698304972104845, 'learning_rate': 'invscaling', 'momentum': 0.7721249928010511, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10018511110802708}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.7743055555555556</v>
+        <v>0.58125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>balance_scale</t>
+          <t>tic_tac_toe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -747,26 +747,26 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>trained_models/MLP/balance_scale/balance_scale_(0, 1)_3_1</t>
+          <t>trained_models/MLP/tic_tac_toe/tic_tac_toe_(0, 1)_3_13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.5553817511197982, 'beta_2': 0.7408615040451714, 'epsilon': 0.769773517554749, 'learning_rate': 'adaptive', 'momentum': 0.9205475833293032, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7720568212000914}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.7743055555555556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vertebral_3C</t>
+          <t>balance_scale</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -783,26 +783,26 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>trained_models/MLP/vertebral_3C/vertebral_3C_(0, 1)_3_15</t>
+          <t>trained_models/MLP/balance_scale/balance_scale_(0, 1)_3_1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
+          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8617021276595744</v>
+        <v>0.9893617021276596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gas_sensor</t>
+          <t>vertebral_3C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -819,26 +819,26 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>trained_models/MLP/gas_sensor/gas_sensor_(0, 1)_3_10</t>
+          <t>trained_models/MLP/vertebral_3C/vertebral_3C_(0, 1)_3_15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9202204120747485</v>
+        <v>0.8617021276595744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>seeds</t>
+          <t>gas_sensor</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -855,26 +855,26 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>trained_models/MLP/seeds/seeds_(0, 1)_3_7</t>
+          <t>trained_models/MLP/gas_sensor/gas_sensor_(0, 1)_3_10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.96875</v>
+        <v>0.9202204120747485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>whitewine_quality</t>
+          <t>seeds</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -891,26 +891,26 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>trained_models/MLP/whitewine_quality/whitewine_quality_(0, 1)_3_0</t>
+          <t>trained_models/MLP/seeds/seeds_(0, 1)_3_7</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
+          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5414965986394558</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pendigits</t>
+          <t>whitewine_quality</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,26 +927,26 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>trained_models/MLP/pendigits/pendigits_(0, 1)_3_1</t>
+          <t>trained_models/MLP/whitewine_quality/whitewine_quality_(0, 1)_3_0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8327615780445969</v>
+        <v>0.5414965986394558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>iris</t>
+          <t>pendigits</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -963,26 +963,26 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>trained_models/MLP/iris/iris_(0, 1)_3_0</t>
+          <t>trained_models/MLP/pendigits/pendigits_(0, 1)_3_1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.8327615780445969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mammographic</t>
+          <t>iris</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -999,26 +999,26 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>trained_models/MLP/mammographic/mammographic_(0, 1)_3_9</t>
+          <t>trained_models/MLP/iris/iris_(0, 1)_3_0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8835341365461847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>mammographic</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1035,26 +1035,26 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>trained_models/MLP/arrhythmia/arrhythmia_(0, 1)_3_17</t>
+          <t>trained_models/MLP/mammographic/mammographic_(0, 1)_3_9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8532607701645135, 'beta_2': 0.13468382704395232, 'epsilon': 0.9641242949523154, 'learning_rate': 'invscaling', 'momentum': 0.7298276355292675, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7348137746305611}</t>
+          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.6535433070866141</v>
+        <v>0.8835341365461847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>epileptic_seizure_2C</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1071,26 +1071,26 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>trained_models/MLP/epileptic_seizure_2C/epileptic_seizure_2C_(0, 1)_3_6</t>
+          <t>trained_models/MLP/arrhythmia/arrhythmia_(0, 1)_3_17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
+          <t>{'beta_1': 0.8532607701645135, 'beta_2': 0.13468382704395232, 'epsilon': 0.9641242949523154, 'learning_rate': 'invscaling', 'momentum': 0.7298276355292675, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7348137746305611}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9403071573456969</v>
+        <v>0.6535433070866141</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>parkinsons</t>
+          <t>epileptic_seizure_2C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1107,26 +1107,26 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>trained_models/MLP/parkinsons/parkinsons_(0, 1)_3_14</t>
+          <t>trained_models/MLP/epileptic_seizure_2C/epileptic_seizure_2C_(0, 1)_3_6</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
+          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8458149779735683</v>
+        <v>0.9403071573456969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cardiotocography</t>
+          <t>parkinsons</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1143,26 +1143,26 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>trained_models/MLP/cardiotocography/cardiotocography_(0, 1)_3_19</t>
+          <t>trained_models/MLP/parkinsons/parkinsons_(0, 1)_3_14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
+          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9043887147335423</v>
+        <v>0.8458149779735683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vertebral_2C</t>
+          <t>cardiotocography</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1179,55 +1179,91 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>trained_models/MLP/vertebral_2C/vertebral_2C_(0, 1)_3_1</t>
+          <t>trained_models/MLP/cardiotocography/cardiotocography_(0, 1)_3_19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
+          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.9043887147335423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>vertebral_2C</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>trained_models/MLP/vertebral_2C/vertebral_2C_(0, 1)_3_1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8829787234042553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>dermatology</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>(0, 1)</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
         <v>5</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>trained_models/MLP/dermatology/dermatology_(0, 1)_3_5</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>{'beta_1': 0.27808502966658566, 'beta_2': 0.28966269009651957, 'epsilon': 0.006054472911401071, 'learning_rate': 'constant', 'momentum': 0.8459838734615371, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5871565138465034}</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>

--- a/trained_models_old_clean/MLP/summary_results_table.xlsx
+++ b/trained_models_old_clean/MLP/summary_results_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>energy_y1</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,26 +495,26 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>trained_models/MLP/energy_y1/energy_y1_(0, 1)_3_14</t>
+          <t>trained_models/MLP/arrhythmia/arrhythmia_(0, 1)_3_6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7735785965307255, 'beta_2': 0.559813330110261, 'epsilon': 0.08241100957801228, 'learning_rate': 'adaptive', 'momentum': 0.8850222549385791, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.009687626994602683}</t>
+          <t>{'beta_1': 0.31310710221217825, 'beta_2': 0.19065915415998982, 'epsilon': 0.9010217089966883, 'learning_rate': 'constant', 'momentum': 0.2711856325092864, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.19861675008444746}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.956709956709957</v>
+        <v>0.6456692913385826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>energy_y2</t>
+          <t>balance_scale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -531,26 +531,26 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>trained_models/MLP/energy_y2/energy_y2_(0, 1)_3_12</t>
+          <t>trained_models/MLP/balance_scale/balance_scale_(0, 1)_3_18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.44159360209219534, 'beta_2': 0.5194324221962674, 'epsilon': 0.693262454523613, 'learning_rate': 'invscaling', 'momentum': 0.46100682934939485, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5391182349867721}</t>
+          <t>{'beta_1': 0.17632288950017108, 'beta_2': 0.938221748178283, 'epsilon': 0.5058059117993652, 'learning_rate': 'invscaling', 'momentum': 0.4671194071688368, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30417355738924656}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9437229437229437</v>
+        <v>0.9840425531914894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>har</t>
+          <t>breast_cancer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -567,26 +567,26 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>trained_models/MLP/har/har_(0, 1)_3_17</t>
+          <t>trained_models/MLP/breast_cancer/breast_cancer_(0, 1)_3_2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9756639553354612, 'beta_2': 0.7959082969442735, 'epsilon': 0.292883275730234, 'learning_rate': 'invscaling', 'momentum': 0.26420426422417276, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.4742667929910924}</t>
+          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9453681710213777</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>breast_cancer</t>
+          <t>cardiotocography</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,26 +603,26 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>trained_models/MLP/breast_cancer/breast_cancer_(0, 1)_3_15</t>
+          <t>trained_models/MLP/cardiotocography/cardiotocography_(0, 1)_3_16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8509567741744859, 'beta_2': 0.9614326787369897, 'epsilon': 0.1104117717586079, 'learning_rate': 'constant', 'momentum': 0.9979940009356586, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.6033229922907446}</t>
+          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9804878048780488</v>
+        <v>0.9059561128526645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>dermatology</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -639,16 +639,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>trained_models/MLP/wine/wine_(0, 1)_3_1</t>
+          <t>trained_models/MLP/dermatology/dermatology_(0, 1)_3_3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.15351287622984, 'beta_2': 0.44404922963498833, 'epsilon': 0.49460123084919705, 'learning_rate': 'constant', 'momentum': 0.581856616157203, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5713805768779951}</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>spectf</t>
+          <t>energy_y1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -675,26 +675,26 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>trained_models/MLP/spectf/spectf_(0, 1)_3_13</t>
+          <t>trained_models/MLP/energy_y1/energy_y1_(0, 1)_3_5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2666788560326197, 'beta_2': 0.8961604243905432, 'epsilon': 0.5640625827825456, 'learning_rate': 'constant', 'momentum': 0.9829901099578396, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3305963007592103}</t>
+          <t>{'beta_1': 0.18086062984940418, 'beta_2': 0.7629831203210261, 'epsilon': 0.06128419048861812, 'learning_rate': 'constant', 'momentum': 0.8258616403155806, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23856602572266783}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9197860962566845</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>redwine_quality</t>
+          <t>energy_y2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -711,26 +711,26 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>trained_models/MLP/redwine_quality/redwine_quality_(0, 1)_3_12</t>
+          <t>trained_models/MLP/energy_y2/energy_y2_(0, 1)_3_17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.880286526374104, 'beta_2': 0.8956147508012579, 'epsilon': 0.36698304972104845, 'learning_rate': 'invscaling', 'momentum': 0.7721249928010511, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10018511110802708}</t>
+          <t>{'beta_1': 0.49187317517272433, 'beta_2': 0.5161988937122239, 'epsilon': 0.11464785408912949, 'learning_rate': 'constant', 'momentum': 0.11293144772785457, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1641548253660814}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.58125</v>
+        <v>0.948051948051948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tic_tac_toe</t>
+          <t>epileptic_seizure_2C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -747,26 +747,26 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>trained_models/MLP/tic_tac_toe/tic_tac_toe_(0, 1)_3_13</t>
+          <t>trained_models/MLP/epileptic_seizure_2C/epileptic_seizure_2C_(0, 1)_3_17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5553817511197982, 'beta_2': 0.7408615040451714, 'epsilon': 0.769773517554749, 'learning_rate': 'adaptive', 'momentum': 0.9205475833293032, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7720568212000914}</t>
+          <t>{'beta_1': 0.04307512681418265, 'beta_2': 0.39381368275498735, 'epsilon': 0.8988351273012174, 'learning_rate': 'invscaling', 'momentum': 0.28533602462541374, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8274282541238485}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.7743055555555556</v>
+        <v>0.9223413503332367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>balance_scale</t>
+          <t>epileptic_seizure_5C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -783,26 +783,26 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>trained_models/MLP/balance_scale/balance_scale_(0, 1)_3_1</t>
+          <t>trained_models/MLP/epileptic_seizure_5C/epileptic_seizure_5C_(0, 1)_3_2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.3735149232106636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vertebral_3C</t>
+          <t>gas_sensor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -819,26 +819,26 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>trained_models/MLP/vertebral_3C/vertebral_3C_(0, 1)_3_15</t>
+          <t>trained_models/MLP/gas_sensor/gas_sensor_(0, 1)_3_8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
+          <t>{'beta_1': 0.14454644832421407, 'beta_2': 0.16787447884661194, 'epsilon': 0.06437100980051019, 'learning_rate': 'invscaling', 'momentum': 0.20825325212148382, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2153982043432382}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8617021276595744</v>
+        <v>0.934355534259703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>gas_sensor</t>
+          <t>har</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -855,26 +855,26 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>trained_models/MLP/gas_sensor/gas_sensor_(0, 1)_3_10</t>
+          <t>trained_models/MLP/har/har_(0, 1)_3_0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.43276066198961965, 'beta_2': 0.6568276111999178, 'epsilon': 0.7251677331318002, 'learning_rate': 'constant', 'momentum': 0.9830668688918388, 'nesterovs_momentum': True, 'solver': 'sgd', 'validation_fraction': 0.8534493333489572}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9202204120747485</v>
+        <v>0.9538513742789277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>seeds</t>
+          <t>iris</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -891,26 +891,26 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>trained_models/MLP/seeds/seeds_(0, 1)_3_7</t>
+          <t>trained_models/MLP/iris/iris_(0, 1)_3_0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.4274478353845527, 'beta_2': 0.729060367703723, 'epsilon': 0.05766126202404963, 'learning_rate': 'invscaling', 'momentum': 0.6907612738337751, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.21980439785647188}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>whitewine_quality</t>
+          <t>mammographic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,26 +927,26 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>trained_models/MLP/whitewine_quality/whitewine_quality_(0, 1)_3_0</t>
+          <t>trained_models/MLP/mammographic/mammographic_(0, 1)_3_19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
+          <t>{'beta_1': 0.7770054833501733, 'beta_2': 0.07101681272948948, 'epsilon': 0.3420641590354221, 'learning_rate': 'adaptive', 'momentum': 0.12503687251526652, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8965321885275243}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5414965986394558</v>
+        <v>0.8835341365461847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pendigits</t>
+          <t>parkinsons</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -963,26 +963,26 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>trained_models/MLP/pendigits/pendigits_(0, 1)_3_1</t>
+          <t>trained_models/MLP/parkinsons/parkinsons_(0, 1)_3_10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8327615780445969</v>
+        <v>0.8590308370044053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>iris</t>
+          <t>pendigits</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -999,26 +999,26 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>trained_models/MLP/iris/iris_(0, 1)_3_0</t>
+          <t>trained_models/MLP/pendigits/pendigits_(0, 1)_3_15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.41710153336013517, 'beta_2': 0.5473750281257296, 'epsilon': 0.7167708411529455, 'learning_rate': 'constant', 'momentum': 0.29918021946326245, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4377852488597531}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.8293310463121784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mammographic</t>
+          <t>redwine_quality</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1035,26 +1035,26 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>trained_models/MLP/mammographic/mammographic_(0, 1)_3_9</t>
+          <t>trained_models/MLP/redwine_quality/redwine_quality_(0, 1)_3_14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
+          <t>{'beta_1': 0.8013857329555096, 'beta_2': 0.27456954982004717, 'epsilon': 0.7882252319748868, 'learning_rate': 'adaptive', 'momentum': 0.43696518540025087, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9700310320731962}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8835341365461847</v>
+        <v>0.5958333333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>seeds</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1071,26 +1071,26 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>trained_models/MLP/arrhythmia/arrhythmia_(0, 1)_3_17</t>
+          <t>trained_models/MLP/seeds/seeds_(0, 1)_3_6</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8532607701645135, 'beta_2': 0.13468382704395232, 'epsilon': 0.9641242949523154, 'learning_rate': 'invscaling', 'momentum': 0.7298276355292675, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7348137746305611}</t>
+          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6535433070866141</v>
+        <v>0.984375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>epileptic_seizure_2C</t>
+          <t>spectf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1107,26 +1107,26 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>trained_models/MLP/epileptic_seizure_2C/epileptic_seizure_2C_(0, 1)_3_6</t>
+          <t>trained_models/MLP/spectf/spectf_(0, 1)_3_5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
+          <t>{'beta_1': 0.9336258141554882, 'beta_2': 0.9206260002643532, 'epsilon': 0.007802405190337483, 'learning_rate': 'adaptive', 'momentum': 0.25663261663902925, 'nesterovs_momentum': True, 'solver': 'adam', 'validation_fraction': 0.31803028916055465}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9403071573456969</v>
+        <v>0.9197860962566845</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>parkinsons</t>
+          <t>tic_tac_toe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1143,26 +1143,26 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>trained_models/MLP/parkinsons/parkinsons_(0, 1)_3_14</t>
+          <t>trained_models/MLP/tic_tac_toe/tic_tac_toe_(0, 1)_3_18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
+          <t>{'beta_1': 0.5776321387927946, 'beta_2': 0.3060762685462834, 'epsilon': 0.9877602540895848, 'learning_rate': 'constant', 'momentum': 0.3145732950042872, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5646665355933133}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8458149779735683</v>
+        <v>0.7673611111111112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cardiotocography</t>
+          <t>vertebral_2C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1179,26 +1179,26 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>trained_models/MLP/cardiotocography/cardiotocography_(0, 1)_3_19</t>
+          <t>trained_models/MLP/vertebral_2C/vertebral_2C_(0, 1)_3_9</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
+          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9043887147335423</v>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vertebral_2C</t>
+          <t>vertebral_3C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1215,26 +1215,26 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>trained_models/MLP/vertebral_2C/vertebral_2C_(0, 1)_3_1</t>
+          <t>trained_models/MLP/vertebral_3C/vertebral_3C_(0, 1)_3_6</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
+          <t>{'beta_1': 0.5325626364884489, 'beta_2': 0.2964159009195633, 'epsilon': 0.4814323469938282, 'learning_rate': 'constant', 'momentum': 0.3759624313127088, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.14596480901134845}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8617021276595744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>whitewine_quality</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1251,20 +1251,56 @@
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>trained_models/MLP/dermatology/dermatology_(0, 1)_3_5</t>
+          <t>trained_models/MLP/whitewine_quality/whitewine_quality_(0, 1)_3_15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.27808502966658566, 'beta_2': 0.28966269009651957, 'epsilon': 0.006054472911401071, 'learning_rate': 'constant', 'momentum': 0.8459838734615371, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5871565138465034}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.5462585034013605</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wine</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>trained_models/MLP/wine/wine_(0, 1)_3_0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9814814814814815</v>
       </c>
     </row>
   </sheetData>
